--- a/test/functional/xlsx_files/print_options04.xlsx
+++ b/test/functional/xlsx_files/print_options04.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -361,7 +361,7 @@
     </row>
   </sheetData>
   <printOptions headings="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200"/>
 </worksheet>
 </file>